--- a/doc/format.xlsx
+++ b/doc/format.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mankuki_era/Documents/個人学習用/出席管理システム/web/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mankuki_era/Documents/個人学習用/在庫管理システム/web/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20C3A52-4D45-BA45-A7AE-F2865A563F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B139112-991B-0945-8099-0BF40ADF1DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="500" yWindow="720" windowWidth="28300" windowHeight="16940" xr2:uid="{65A35B95-82A8-AB46-B69B-4DD1D4A101D7}"/>
   </bookViews>
@@ -34,63 +34,239 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テスト1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20EC001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20EC005</t>
-  </si>
-  <si>
-    <t>team</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>17EC112</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>17EC053</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>テスト2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テスト3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テスト4</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+  <si>
+    <t>製品名</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">セイヒンメイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要数</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ヒツヨウスウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫数</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ザイコスウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お気に入り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トランジスタ　Ｃ９４５　（２０個入）</t>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gI-17090/</t>
+  </si>
+  <si>
+    <t>300個</t>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">コ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>800個</t>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">コ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1EC、トランジスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抵抗内蔵５ｍｍＬＥＤ　５Ｖ　赤色　６４０ｎｍ　ＯＳＲ６ＬＵ５Ｂ６４Ａ－５Ｖ（１０個入）</t>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gI-06245/</t>
+  </si>
+  <si>
+    <t>200個</t>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">コ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000個</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">コ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1EC、2EC、2NC、LED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２回路入コンパレーター　ＬＭ３９３ＧＮ</t>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gI-16987/</t>
+  </si>
+  <si>
+    <t>400個</t>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">コ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1EC、コンパレーター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２．１ｍｍ標準ＤＣジャック　パネル取付用　２２１９６</t>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gC-17108/</t>
+  </si>
+  <si>
+    <t>1EC、DCジャック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トランジスタ　２ＳＣ１８１５　（２０個入）</t>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gI-17089/</t>
+  </si>
+  <si>
+    <t>600個</t>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">コ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーボン抵抗（炭素皮膜抵抗）　１／４Ｗ１０ｋΩ　（１００本入）</t>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gR-25103/</t>
+  </si>
+  <si>
+    <t>500個</t>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">コ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1EC、2EC、2NC、抵抗</t>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">テイコウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーボン抵抗（炭素皮膜抵抗）　１／６Ｗ１０ｋΩ　（１００本入）</t>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gR-16103/</t>
+  </si>
+  <si>
+    <t>1EC、抵抗</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">テイコウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>片面ガラスコンポジット・ユニバーサル基板　Ｃタイプ　めっき仕上げ　（７２×４７ｍｍ）　日本製</t>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gP-03229/</t>
+  </si>
+  <si>
+    <t>1EC、基盤</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">キバン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タクトスイッチ（黒色）</t>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gP-03647/</t>
+  </si>
+  <si>
+    <t>120個</t>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">コ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1EC、タクトスイッチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タクトスイッチ（赤色）</t>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gP-03646/</t>
+  </si>
+  <si>
+    <t>３Ｐトグルスイッチ　１回路２接点　パネル取付用</t>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gP-03774/</t>
+  </si>
+  <si>
+    <t>管理室</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">カンリシツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブレッドボード　ＢＢ－８０１</t>
+  </si>
+  <si>
+    <t>https://akizukidenshi.com/catalog/g/gP-05294/</t>
+  </si>
+  <si>
+    <t>1EC、4EC、4NC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小袋</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コブクロ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20枚</t>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">マイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2EC、2NC、管理室</t>
+    <rPh sb="8" eb="11">
+      <t xml:space="preserve">カンリシツ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -455,18 +631,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0756EAA-47CF-2747-BA14-D056AC7893CC}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="81.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,51 +652,261 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
